--- a/biology/Mycologie/Coprinus/Coprinus.xlsx
+++ b/biology/Mycologie/Coprinus/Coprinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprinus est un genre de champignons basidiomycètes de la famille des Agaricaceae, appartenant à l'ordre des Agaricales. Il comprenait à l'origine tous les champignons appelés en français « coprins », dont la principale caractéristique est d'avoir des lames déliquescentes à maturité et des spores noires. Mais l'évolution de la taxinomie fait qu'aujourd'hui de nombreux coprins sont classés dans d'autres genres et familles. Le genre Coprinus comporte beaucoup d'espèces, dont une seule est un bon comestible, le coprin chevelu (Coprinus comatus), à condition de le consommer très jeune. Les coprins apprécient les terres grasses, fumées ; certains poussent même sur les excréments d'animaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénique va modifier la répartition des espèces en plusieurs genres: Coprinus, Coprinellus, Coprinopsis et Parasola, ces trois derniers genres reclassés dans la famille des Psathyrellaceae.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coprin chevelu
-Le Coprin chevelu (Coprinus comatus) est facilement reconnaissable à son chapeau qui recouvre presque la totalité du pied. Entièrement blanc au début, le chapeau se couvre de mèches jaunâtres ou ocrées (d'où son qualificatif de chevelu). Les lamelles virent rapidement du blanc au rose, puis au noir. Il est déliquescent, mais moins fortement que le précédent. Il pousse en touffes importantes dans des lieux souvent inattendus (jardins publics des villes). Jeune, c’est-à-dire entièrement blanc, c'est un excellent comestible, à condition de le manger rapidement après la cueillette (il devient rapidement inconsommable, noircissant et se liquéfiant). On peut le préparer en sauce blanche.
+          <t>Coprin chevelu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coprin chevelu (Coprinus comatus) est facilement reconnaissable à son chapeau qui recouvre presque la totalité du pied. Entièrement blanc au début, le chapeau se couvre de mèches jaunâtres ou ocrées (d'où son qualificatif de chevelu). Les lamelles virent rapidement du blanc au rose, puis au noir. Il est déliquescent, mais moins fortement que le précédent. Il pousse en touffes importantes dans des lieux souvent inattendus (jardins publics des villes). Jeune, c’est-à-dire entièrement blanc, c'est un excellent comestible, à condition de le manger rapidement après la cueillette (il devient rapidement inconsommable, noircissant et se liquéfiant). On peut le préparer en sauce blanche.
 </t>
         </is>
       </c>
